--- a/Data/EC/NIT-8002123014.xlsx
+++ b/Data/EC/NIT-8002123014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9A5616-F1B5-4555-82FE-E74CA622F334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07111E65-C1CE-4947-AA94-F36741C80CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D08463D-0C47-44DE-BC33-2A6554BFA26D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCB4761C-9781-46F1-B964-5A902096BAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="78">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,118 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7917204</t>
+  </si>
+  <si>
+    <t>GELBER ALBERTO DIAZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>73157665</t>
+  </si>
+  <si>
+    <t>CARLOS ARNEDO NOGUERA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>45486627</t>
   </si>
   <si>
     <t>IRASEMA MARIA CANTILLO ARNEDO</t>
   </si>
   <si>
-    <t>1608</t>
+    <t>73181480</t>
+  </si>
+  <si>
+    <t>EDWIN ARMANDO CARDENAS CARABALLO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>73157967</t>
+  </si>
+  <si>
+    <t>HAROLD JOSE CESPEDES FAJARDO</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>1047436924</t>
+  </si>
+  <si>
+    <t>FABIAN ANDRES BARROS VERGEL</t>
+  </si>
+  <si>
+    <t>19873096</t>
+  </si>
+  <si>
+    <t>JAIME RICARDO FIGUEROA PUERTA</t>
+  </si>
+  <si>
+    <t>73107779</t>
+  </si>
+  <si>
+    <t>FABIAN RICARDO BARROS DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>73207303</t>
+  </si>
+  <si>
+    <t>RODRIGO SIERRA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1007255438</t>
+  </si>
+  <si>
+    <t>DANILO MOSQUERA PEÑA</t>
+  </si>
+  <si>
+    <t>3883702</t>
+  </si>
+  <si>
+    <t>EFREN PALOMINO TORRES</t>
+  </si>
+  <si>
+    <t>1102798833</t>
+  </si>
+  <si>
+    <t>LINA PAOLA AVILA MEJIA</t>
   </si>
   <si>
     <t>45559143</t>
@@ -80,46 +185,10 @@
     <t>KATHERINE DEL CARMEN GOMEZ ROSALES</t>
   </si>
   <si>
-    <t>7917204</t>
-  </si>
-  <si>
-    <t>GELBER ALBERTO DIAZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1047436924</t>
-  </si>
-  <si>
-    <t>FABIAN ANDRES BARROS VERGEL</t>
-  </si>
-  <si>
-    <t>73107779</t>
-  </si>
-  <si>
-    <t>FABIAN RICARDO BARROS DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>19873096</t>
-  </si>
-  <si>
-    <t>JAIME RICARDO FIGUEROA PUERTA</t>
-  </si>
-  <si>
-    <t>1102798833</t>
-  </si>
-  <si>
-    <t>LINA PAOLA AVILA MEJIA</t>
-  </si>
-  <si>
-    <t>3883702</t>
-  </si>
-  <si>
-    <t>EFREN PALOMINO TORRES</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1701</t>
+    <t>45560830</t>
+  </si>
+  <si>
+    <t>LUZ DARY SIERRA OSORIO</t>
   </si>
   <si>
     <t>1148706927</t>
@@ -131,6 +200,27 @@
     <t>1909</t>
   </si>
   <si>
+    <t>1235040367</t>
+  </si>
+  <si>
+    <t>HAROLD DE JESUS CESPEDES JULIO</t>
+  </si>
+  <si>
+    <t>1047484225</t>
+  </si>
+  <si>
+    <t>LUIS DANIEL CARDENAS HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>20269532</t>
   </si>
   <si>
@@ -138,21 +228,6 @@
   </si>
   <si>
     <t>2008</t>
-  </si>
-  <si>
-    <t>1047484225</t>
-  </si>
-  <si>
-    <t>LUIS DANIEL CARDENAS HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
   </si>
   <si>
     <t>1235038609</t>
@@ -575,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789F5B31-A783-933E-5224-ABDC36D51C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CB7EF6-CA5D-D425-2597-062E0AC561A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +1001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1B004F-6882-47BC-9C8D-6C464AEAAEC0}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B519A11F-33B4-4D8C-9E50-E671BE7382D4}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +1026,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +1071,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1103,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>786627</v>
+        <v>2500907</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1119,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1118,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
@@ -1141,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
@@ -1164,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1187,10 +1262,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1210,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
@@ -1233,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1256,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1279,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1302,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1325,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>47314</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1348,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>47314</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1371,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>47314</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1394,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>47314</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1417,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1440,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1463,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1486,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1509,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1532,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1555,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1578,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
         <v>27578</v>
@@ -1601,19 +1676,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
-        <v>22083</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>689455</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1630,13 +1705,13 @@
         <v>32</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
-        <v>24578</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1647,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>689455</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1670,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>689455</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1693,75 +1768,880 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>689455</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G43" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G44" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G45" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="F47" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="F48" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="24">
+      <c r="D49" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G54" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G55" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G56" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G57" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G58" s="18">
+        <v>689455</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="18">
+        <v>87256</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="18">
+        <v>87256</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="18">
+        <v>87256</v>
+      </c>
+      <c r="G64" s="18">
+        <v>0</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="18">
+        <v>87256</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="18">
+        <v>22083</v>
+      </c>
+      <c r="G66" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="18">
+        <v>24578</v>
+      </c>
+      <c r="G77" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="24">
         <v>24227</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G78" s="24">
         <v>908526</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
